--- a/DB.xlsx
+++ b/DB.xlsx
@@ -460,17 +460,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Localidade(s)</t>
+          <t>Grupo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Grupo</t>
+          <t>Avaliacao</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Avaliacao</t>
+          <t>UF</t>
         </is>
       </c>
     </row>
@@ -492,13 +492,13 @@
         <v>45469</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -519,13 +519,13 @@
         <v>45471</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -546,13 +546,13 @@
         <v>45471</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -573,13 +573,13 @@
         <v>45471</v>
       </c>
       <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -599,12 +599,12 @@
       <c r="D6" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>7</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -625,13 +625,13 @@
         <v>45474</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         <v>45476</v>
       </c>
       <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -679,13 +679,13 @@
         <v>45476</v>
       </c>
       <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -706,13 +706,13 @@
         <v>45476</v>
       </c>
       <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -732,12 +732,12 @@
       <c r="D11" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>7</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -757,12 +757,12 @@
       <c r="D12" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>7</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -783,13 +783,13 @@
         <v>45478</v>
       </c>
       <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -810,13 +810,13 @@
         <v>45478</v>
       </c>
       <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -836,12 +836,12 @@
       <c r="D15" s="2" t="n">
         <v>45478</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>7</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -862,13 +862,13 @@
         <v>45478</v>
       </c>
       <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -892,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -916,13 +916,13 @@
         <v>45485</v>
       </c>
       <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
         <v>7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -943,13 +943,13 @@
         <v>45487</v>
       </c>
       <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -970,13 +970,13 @@
         <v>45487</v>
       </c>
       <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -996,12 +996,12 @@
       <c r="D21" s="2" t="n">
         <v>45487</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>7</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1021,12 +1021,12 @@
       <c r="D22" s="2" t="n">
         <v>45487</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>19</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1047,13 +1047,13 @@
         <v>45487</v>
       </c>
       <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>12</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1074,13 +1074,13 @@
         <v>45488</v>
       </c>
       <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
         <v>7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1101,13 +1101,13 @@
         <v>45488</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1127,12 +1127,14 @@
       <c r="D26" s="2" t="n">
         <v>45488</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1153,13 +1155,13 @@
         <v>45488</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1180,13 +1182,13 @@
         <v>45488</v>
       </c>
       <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>14</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,13 +1209,13 @@
         <v>45488</v>
       </c>
       <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1233,12 +1235,14 @@
       <c r="D30" s="2" t="n">
         <v>45488</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1259,13 +1263,13 @@
         <v>45491</v>
       </c>
       <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>24</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1285,12 +1289,12 @@
       <c r="D32" s="2" t="n">
         <v>45491</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>12</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1311,13 +1315,13 @@
         <v>45492</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1338,13 +1342,13 @@
         <v>45492</v>
       </c>
       <c r="E34" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1364,12 +1368,12 @@
       <c r="D35" s="2" t="n">
         <v>45492</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>7</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1390,13 +1394,13 @@
         <v>45495</v>
       </c>
       <c r="E36" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -1417,13 +1421,13 @@
         <v>45495</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -1443,12 +1447,12 @@
       <c r="D38" s="2" t="n">
         <v>45499</v>
       </c>
-      <c r="E38" t="n">
-        <v>17</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -1469,13 +1473,13 @@
         <v>45499</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1496,13 +1500,13 @@
         <v>45502</v>
       </c>
       <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>19</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1523,13 +1527,13 @@
         <v>45502</v>
       </c>
       <c r="E41" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -1550,13 +1554,13 @@
         <v>45502</v>
       </c>
       <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>20</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1576,12 +1580,14 @@
       <c r="D43" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1602,13 +1608,13 @@
         <v>45502</v>
       </c>
       <c r="E44" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -1628,12 +1634,12 @@
       <c r="D45" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>7</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1653,12 +1659,12 @@
       <c r="D46" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>19</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1679,13 +1685,13 @@
         <v>45502</v>
       </c>
       <c r="E47" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -1705,12 +1711,12 @@
       <c r="D48" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>7</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1731,13 +1737,13 @@
         <v>45502</v>
       </c>
       <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1758,13 +1764,13 @@
         <v>45502</v>
       </c>
       <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>7</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1785,13 +1791,13 @@
         <v>45503</v>
       </c>
       <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1812,13 +1818,13 @@
         <v>45503</v>
       </c>
       <c r="E52" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -1839,13 +1845,13 @@
         <v>45524</v>
       </c>
       <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>19</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1866,13 +1872,13 @@
         <v>45524</v>
       </c>
       <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1893,13 +1899,13 @@
         <v>45524</v>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1920,13 +1926,13 @@
         <v>45524</v>
       </c>
       <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>19</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1947,13 +1953,13 @@
         <v>45524</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -1974,13 +1980,13 @@
         <v>45524</v>
       </c>
       <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>7</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2001,13 +2007,13 @@
         <v>45524</v>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2028,13 +2034,13 @@
         <v>45525</v>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -2054,12 +2060,12 @@
       <c r="D61" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E61" t="n">
-        <v>17</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -2080,13 +2086,13 @@
         <v>45525</v>
       </c>
       <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>7</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2107,13 +2113,13 @@
         <v>45525</v>
       </c>
       <c r="E63" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
@@ -2134,13 +2140,13 @@
         <v>45525</v>
       </c>
       <c r="E64" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -2160,12 +2166,12 @@
       <c r="D65" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E65" t="n">
-        <v>26</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
@@ -2185,12 +2191,12 @@
       <c r="D66" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>7</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2211,13 +2217,13 @@
         <v>45525</v>
       </c>
       <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>7</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2238,13 +2244,13 @@
         <v>45525</v>
       </c>
       <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>5</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2265,13 +2271,13 @@
         <v>45525</v>
       </c>
       <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>7</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2291,12 +2297,12 @@
       <c r="D70" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>7</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2316,12 +2322,12 @@
       <c r="D71" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>7</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2341,12 +2347,12 @@
       <c r="D72" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>7</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2366,12 +2372,12 @@
       <c r="D73" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>19</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2391,12 +2397,12 @@
       <c r="D74" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E74" t="n">
-        <v>3</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -2417,13 +2423,13 @@
         <v>45527</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -2444,13 +2450,13 @@
         <v>45534</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
@@ -2471,13 +2477,13 @@
         <v>45534</v>
       </c>
       <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
         <v>7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2498,13 +2504,13 @@
         <v>45541</v>
       </c>
       <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
         <v>7</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2525,13 +2531,13 @@
         <v>45541</v>
       </c>
       <c r="E79" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -2552,13 +2558,13 @@
         <v>45544</v>
       </c>
       <c r="E80" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -2579,13 +2585,13 @@
         <v>45544</v>
       </c>
       <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
         <v>7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2605,13 +2611,13 @@
       <c r="D82" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
       <c r="F82" t="n">
-        <v>3</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2631,13 +2637,13 @@
         <v>45544</v>
       </c>
       <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>19</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2658,13 +2664,13 @@
         <v>45544</v>
       </c>
       <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>7</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2685,13 +2691,13 @@
         <v>45544</v>
       </c>
       <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>9</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2712,13 +2718,13 @@
         <v>45544</v>
       </c>
       <c r="E86" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -2739,13 +2745,13 @@
         <v>45544</v>
       </c>
       <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>24</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2765,12 +2771,12 @@
       <c r="D88" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>24</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2790,12 +2796,12 @@
       <c r="D89" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>7</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2815,12 +2821,12 @@
       <c r="D90" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>14</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2840,12 +2846,12 @@
       <c r="D91" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>12</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2866,13 +2872,13 @@
         <v>45544</v>
       </c>
       <c r="E92" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
@@ -2892,12 +2898,14 @@
       <c r="D93" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
@@ -2921,10 +2929,10 @@
         <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -2945,13 +2953,13 @@
         <v>45546</v>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -2972,13 +2980,13 @@
         <v>45547</v>
       </c>
       <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2999,13 +3007,13 @@
         <v>45547</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
@@ -3026,13 +3034,13 @@
         <v>45552</v>
       </c>
       <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
         <v>7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3053,13 +3061,13 @@
         <v>45552</v>
       </c>
       <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
         <v>7</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3080,13 +3088,13 @@
         <v>45552</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -3107,13 +3115,13 @@
         <v>45552</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
@@ -3134,13 +3142,13 @@
         <v>45552</v>
       </c>
       <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
         <v>7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3161,13 +3169,13 @@
         <v>45552</v>
       </c>
       <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
         <v>5</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3188,13 +3196,13 @@
         <v>45552</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -3215,13 +3223,13 @@
         <v>45552</v>
       </c>
       <c r="E105" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
@@ -3242,13 +3250,13 @@
         <v>45552</v>
       </c>
       <c r="E106" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
         <v>19</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3269,13 +3277,13 @@
         <v>45552</v>
       </c>
       <c r="E107" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
@@ -3296,13 +3304,13 @@
         <v>45553</v>
       </c>
       <c r="E108" t="n">
+        <v>3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3323,13 +3331,13 @@
         <v>45553</v>
       </c>
       <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
         <v>7</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3350,13 +3358,13 @@
         <v>45553</v>
       </c>
       <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
         <v>7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3377,13 +3385,13 @@
         <v>45553</v>
       </c>
       <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
         <v>7</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3404,13 +3412,13 @@
         <v>45553</v>
       </c>
       <c r="E112" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3430,12 +3438,12 @@
       <c r="D113" s="2" t="n">
         <v>45554</v>
       </c>
-      <c r="E113" t="n">
-        <v>26</v>
-      </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
@@ -3456,13 +3464,13 @@
         <v>45554</v>
       </c>
       <c r="E114" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
@@ -3482,12 +3490,12 @@
       <c r="D115" s="2" t="n">
         <v>45554</v>
       </c>
-      <c r="E115" t="n">
-        <v>25</v>
-      </c>
-      <c r="F115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
@@ -3507,12 +3515,12 @@
       <c r="D116" s="2" t="n">
         <v>45554</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>7</v>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3533,13 +3541,13 @@
         <v>45554</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -3560,13 +3568,13 @@
         <v>45554</v>
       </c>
       <c r="E118" t="n">
+        <v>3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>3</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3587,13 +3595,13 @@
         <v>45554</v>
       </c>
       <c r="E119" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -3614,10 +3622,10 @@
         <v>45555</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3641,13 +3649,13 @@
         <v>45559</v>
       </c>
       <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
         <v>14</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3667,12 +3675,14 @@
       <c r="D122" s="2" t="n">
         <v>45559</v>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -3693,13 +3703,13 @@
         <v>45559</v>
       </c>
       <c r="E123" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -3720,13 +3730,13 @@
         <v>45559</v>
       </c>
       <c r="E124" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
@@ -3747,13 +3757,13 @@
         <v>45560</v>
       </c>
       <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
         <v>19</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3774,13 +3784,13 @@
         <v>45560</v>
       </c>
       <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
         <v>24</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3801,13 +3811,13 @@
         <v>45560</v>
       </c>
       <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
         <v>7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3828,13 +3838,13 @@
         <v>45572</v>
       </c>
       <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
         <v>7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>3</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3855,13 +3865,13 @@
         <v>45573</v>
       </c>
       <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
         <v>7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3881,12 +3891,12 @@
       <c r="D130" s="2" t="n">
         <v>45574</v>
       </c>
-      <c r="E130" t="n">
-        <v>25</v>
-      </c>
-      <c r="F130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
@@ -3907,13 +3917,13 @@
         <v>45574</v>
       </c>
       <c r="E131" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
         <v>5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3934,13 +3944,13 @@
         <v>45574</v>
       </c>
       <c r="E132" t="n">
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
         <v>5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3961,13 +3971,13 @@
         <v>45574</v>
       </c>
       <c r="E133" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
@@ -3988,13 +3998,13 @@
         <v>45574</v>
       </c>
       <c r="E134" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
@@ -4015,13 +4025,13 @@
         <v>45574</v>
       </c>
       <c r="E135" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
@@ -4041,12 +4051,12 @@
       <c r="D136" s="2" t="n">
         <v>45574</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
         <v>5</v>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4066,12 +4076,12 @@
       <c r="D137" s="2" t="n">
         <v>45574</v>
       </c>
-      <c r="E137" t="n">
-        <v>17</v>
-      </c>
-      <c r="F137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
@@ -4092,13 +4102,13 @@
         <v>45586</v>
       </c>
       <c r="E138" t="n">
+        <v>3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
         <v>15</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4119,13 +4129,13 @@
         <v>45586</v>
       </c>
       <c r="E139" t="n">
+        <v>3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
         <v>7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4146,13 +4156,13 @@
         <v>45586</v>
       </c>
       <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
         <v>7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4173,13 +4183,13 @@
         <v>45586</v>
       </c>
       <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
         <v>7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4200,13 +4210,13 @@
         <v>45586</v>
       </c>
       <c r="E142" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
@@ -4227,13 +4237,13 @@
         <v>45587</v>
       </c>
       <c r="E143" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -4254,13 +4264,13 @@
         <v>45588</v>
       </c>
       <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
         <v>12</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -4281,13 +4291,13 @@
         <v>45588</v>
       </c>
       <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
         <v>12</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4308,13 +4318,13 @@
         <v>45588</v>
       </c>
       <c r="E146" t="n">
+        <v>3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
         <v>7</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4335,13 +4345,13 @@
         <v>45588</v>
       </c>
       <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
         <v>7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4362,13 +4372,13 @@
         <v>45588</v>
       </c>
       <c r="E148" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
@@ -4388,12 +4398,14 @@
       <c r="D149" s="2" t="n">
         <v>45588</v>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>3</v>
+      </c>
       <c r="F149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
@@ -4414,13 +4426,13 @@
         <v>45594</v>
       </c>
       <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
         <v>7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4441,13 +4453,13 @@
         <v>45600</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -4468,13 +4480,13 @@
         <v>45600</v>
       </c>
       <c r="E152" t="n">
+        <v>3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
         <v>9</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -4495,13 +4507,13 @@
         <v>45604</v>
       </c>
       <c r="E153" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -4521,12 +4533,12 @@
       <c r="D154" s="2" t="n">
         <v>45615</v>
       </c>
-      <c r="E154" t="n">
-        <v>4</v>
-      </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -4546,12 +4558,14 @@
       <c r="D155" s="2" t="n">
         <v>45615</v>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>3</v>
+      </c>
       <c r="F155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
@@ -4572,13 +4586,13 @@
         <v>45615</v>
       </c>
       <c r="E156" t="n">
+        <v>3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
         <v>7</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4599,13 +4613,13 @@
         <v>45615</v>
       </c>
       <c r="E157" t="n">
+        <v>3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
         <v>7</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4626,13 +4640,13 @@
         <v>45615</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -4653,13 +4667,13 @@
         <v>45615</v>
       </c>
       <c r="E159" t="n">
+        <v>3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
         <v>19</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4680,13 +4694,13 @@
         <v>45615</v>
       </c>
       <c r="E160" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
         <v>19</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -4707,13 +4721,13 @@
         <v>45615</v>
       </c>
       <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
         <v>19</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -4734,13 +4748,13 @@
         <v>45615</v>
       </c>
       <c r="E162" t="n">
+        <v>3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
         <v>19</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4761,13 +4775,13 @@
         <v>45615</v>
       </c>
       <c r="E163" t="n">
+        <v>3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
         <v>15</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -4788,13 +4802,13 @@
         <v>45615</v>
       </c>
       <c r="E164" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
         <v>19</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4815,13 +4829,13 @@
         <v>45615</v>
       </c>
       <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
         <v>19</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4842,13 +4856,13 @@
         <v>45615</v>
       </c>
       <c r="E166" t="n">
+        <v>3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
         <v>19</v>
-      </c>
-      <c r="F166" t="n">
-        <v>3</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4869,13 +4883,13 @@
         <v>45615</v>
       </c>
       <c r="E167" t="n">
+        <v>3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
         <v>7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4895,12 +4909,12 @@
       <c r="D168" s="2" t="n">
         <v>45615</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
         <v>7</v>
-      </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -4921,13 +4935,13 @@
         <v>45615</v>
       </c>
       <c r="E169" t="n">
+        <v>3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
         <v>5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -4948,13 +4962,13 @@
         <v>45615</v>
       </c>
       <c r="E170" t="n">
+        <v>3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
         <v>5</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -4975,13 +4989,13 @@
         <v>45615</v>
       </c>
       <c r="E171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
         <v>6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -5002,13 +5016,13 @@
         <v>45615</v>
       </c>
       <c r="E172" t="n">
+        <v>3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
         <v>7</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5029,13 +5043,13 @@
         <v>45617</v>
       </c>
       <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
         <v>7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>3</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -5056,13 +5070,13 @@
         <v>45618</v>
       </c>
       <c r="E174" t="n">
+        <v>3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
         <v>7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5083,13 +5097,13 @@
         <v>45621</v>
       </c>
       <c r="E175" t="n">
+        <v>3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
         <v>7</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -5110,13 +5124,13 @@
         <v>45621</v>
       </c>
       <c r="E176" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177">
@@ -5136,12 +5150,12 @@
       <c r="D177" s="2" t="n">
         <v>45623</v>
       </c>
-      <c r="E177" t="n">
-        <v>3</v>
-      </c>
-      <c r="F177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -5162,13 +5176,13 @@
         <v>45623</v>
       </c>
       <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
         <v>6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5189,13 +5203,13 @@
         <v>45623</v>
       </c>
       <c r="E179" t="n">
+        <v>3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
         <v>7</v>
-      </c>
-      <c r="F179" t="n">
-        <v>3</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5215,12 +5229,12 @@
       <c r="D180" s="2" t="n">
         <v>45623</v>
       </c>
-      <c r="E180" t="n">
-        <v>16</v>
-      </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181">
@@ -5241,10 +5255,10 @@
         <v>45624</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -5268,13 +5282,13 @@
         <v>45624</v>
       </c>
       <c r="E182" t="n">
+        <v>3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
         <v>19</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -5294,12 +5308,12 @@
       <c r="D183" s="2" t="n">
         <v>45625</v>
       </c>
-      <c r="E183" t="n">
-        <v>4</v>
-      </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -5319,12 +5333,12 @@
       <c r="D184" s="2" t="n">
         <v>45625</v>
       </c>
-      <c r="E184" t="n">
-        <v>6</v>
-      </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -5345,13 +5359,13 @@
         <v>45625</v>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186">
@@ -5372,13 +5386,13 @@
         <v>45625</v>
       </c>
       <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
         <v>14</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5402,10 +5416,10 @@
         <v>3</v>
       </c>
       <c r="F187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -5426,13 +5440,13 @@
         <v>45625</v>
       </c>
       <c r="E188" t="n">
+        <v>3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
         <v>7</v>
-      </c>
-      <c r="F188" t="n">
-        <v>3</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5453,13 +5467,13 @@
         <v>45625</v>
       </c>
       <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
         <v>7</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5480,13 +5494,13 @@
         <v>45625</v>
       </c>
       <c r="E190" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
@@ -5507,13 +5521,13 @@
         <v>45636</v>
       </c>
       <c r="E191" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
         <v>7</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -5534,13 +5548,13 @@
         <v>45636</v>
       </c>
       <c r="E192" t="n">
+        <v>3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
         <v>9</v>
-      </c>
-      <c r="F192" t="n">
-        <v>3</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -5561,13 +5575,13 @@
         <v>45636</v>
       </c>
       <c r="E193" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -5588,13 +5602,13 @@
         <v>45636</v>
       </c>
       <c r="E194" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195">
@@ -5615,13 +5629,13 @@
         <v>45636</v>
       </c>
       <c r="E195" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196">
@@ -5642,13 +5656,13 @@
         <v>45636</v>
       </c>
       <c r="E196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -5669,13 +5683,13 @@
         <v>45636</v>
       </c>
       <c r="E197" t="n">
+        <v>3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
         <v>5</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5695,12 +5709,14 @@
       <c r="D198" s="2" t="n">
         <v>45636</v>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>3</v>
+      </c>
       <c r="F198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
@@ -5721,13 +5737,13 @@
         <v>45636</v>
       </c>
       <c r="E199" t="n">
+        <v>3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
         <v>9</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5748,13 +5764,13 @@
         <v>45636</v>
       </c>
       <c r="E200" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201">
@@ -5775,13 +5791,13 @@
         <v>45636</v>
       </c>
       <c r="E201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -5801,12 +5817,14 @@
       <c r="D202" s="2" t="n">
         <v>45636</v>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>3</v>
+      </c>
       <c r="F202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203">
@@ -5827,13 +5845,13 @@
         <v>45636</v>
       </c>
       <c r="E203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -5853,12 +5871,12 @@
       <c r="D204" s="2" t="n">
         <v>45636</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
         <v>7</v>
-      </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5879,13 +5897,13 @@
         <v>45642</v>
       </c>
       <c r="E205" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206">
@@ -5906,13 +5924,13 @@
         <v>45643</v>
       </c>
       <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
         <v>15</v>
-      </c>
-      <c r="F206" t="n">
-        <v>3</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5933,13 +5951,13 @@
         <v>45643</v>
       </c>
       <c r="E207" t="n">
+        <v>3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
         <v>7</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5960,13 +5978,13 @@
         <v>45643</v>
       </c>
       <c r="E208" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209">
@@ -5986,12 +6004,12 @@
       <c r="D209" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E209" t="n">
-        <v>16</v>
-      </c>
-      <c r="F209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210">
@@ -6012,13 +6030,13 @@
         <v>45643</v>
       </c>
       <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
         <v>19</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -6039,13 +6057,13 @@
         <v>45643</v>
       </c>
       <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
         <v>10</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -6066,13 +6084,13 @@
         <v>45643</v>
       </c>
       <c r="E212" t="n">
+        <v>3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
         <v>5</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -6093,13 +6111,13 @@
         <v>45643</v>
       </c>
       <c r="E213" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
         <v>7</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -6120,13 +6138,13 @@
         <v>45643</v>
       </c>
       <c r="E214" t="n">
+        <v>3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
         <v>5</v>
-      </c>
-      <c r="F214" t="n">
-        <v>3</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6147,13 +6165,13 @@
         <v>45643</v>
       </c>
       <c r="E215" t="n">
+        <v>3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
         <v>20</v>
-      </c>
-      <c r="F215" t="n">
-        <v>3</v>
-      </c>
-      <c r="G215" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -6174,13 +6192,13 @@
         <v>45643</v>
       </c>
       <c r="E216" t="n">
+        <v>3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
         <v>8</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -6201,13 +6219,13 @@
         <v>45643</v>
       </c>
       <c r="E217" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
         <v>12</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -6227,13 +6245,13 @@
       <c r="D218" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>3</v>
+      </c>
       <c r="F218" t="n">
-        <v>3</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6253,13 +6271,13 @@
         <v>45643</v>
       </c>
       <c r="E219" t="n">
+        <v>3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
         <v>5</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6280,13 +6298,13 @@
         <v>45643</v>
       </c>
       <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
         <v>24</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -6307,13 +6325,13 @@
         <v>45643</v>
       </c>
       <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
         <v>7</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -6333,13 +6351,13 @@
       <c r="D222" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>3</v>
+      </c>
       <c r="F222" t="n">
-        <v>3</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6358,12 +6376,14 @@
       <c r="D223" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>3</v>
+      </c>
       <c r="F223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6384,13 +6404,13 @@
         <v>45643</v>
       </c>
       <c r="E224" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225">
@@ -6411,13 +6431,13 @@
         <v>45643</v>
       </c>
       <c r="E225" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
@@ -6437,12 +6457,12 @@
       <c r="D226" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
         <v>7</v>
-      </c>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6462,12 +6482,12 @@
       <c r="D227" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E227" t="n">
-        <v>13</v>
-      </c>
-      <c r="F227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228">
@@ -6487,12 +6507,12 @@
       <c r="D228" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E228" t="n">
-        <v>11</v>
-      </c>
-      <c r="F228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229">
@@ -6513,13 +6533,13 @@
         <v>45644</v>
       </c>
       <c r="E229" t="n">
+        <v>3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
         <v>7</v>
-      </c>
-      <c r="F229" t="n">
-        <v>3</v>
-      </c>
-      <c r="G229" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6540,13 +6560,13 @@
         <v>45644</v>
       </c>
       <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
         <v>7</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -6567,9 +6587,11 @@
         <v>45644</v>
       </c>
       <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
@@ -6590,13 +6612,13 @@
         <v>45644</v>
       </c>
       <c r="E232" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -6616,12 +6638,14 @@
       <c r="D233" s="2" t="n">
         <v>45644</v>
       </c>
-      <c r="E233" t="inlineStr"/>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
       <c r="F233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234">
@@ -6642,13 +6666,13 @@
         <v>45644</v>
       </c>
       <c r="E234" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235">
@@ -6669,13 +6693,13 @@
         <v>45644</v>
       </c>
       <c r="E235" t="n">
+        <v>3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
         <v>19</v>
-      </c>
-      <c r="F235" t="n">
-        <v>3</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -6696,13 +6720,13 @@
         <v>45644</v>
       </c>
       <c r="E236" t="n">
+        <v>3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="n">
         <v>14</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -6722,12 +6746,14 @@
       <c r="D237" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="n">
+        <v>3</v>
+      </c>
       <c r="F237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238">
@@ -6747,12 +6773,14 @@
       <c r="D238" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E238" t="inlineStr"/>
+      <c r="E238" t="n">
+        <v>3</v>
+      </c>
       <c r="F238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
@@ -6772,12 +6800,14 @@
       <c r="D239" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E239" t="inlineStr"/>
+      <c r="E239" t="n">
+        <v>3</v>
+      </c>
       <c r="F239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240">
@@ -6797,12 +6827,14 @@
       <c r="D240" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="n">
+        <v>3</v>
+      </c>
       <c r="F240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241">
@@ -6822,12 +6854,14 @@
       <c r="D241" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="n">
+        <v>3</v>
+      </c>
       <c r="F241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242">
@@ -6847,12 +6881,14 @@
       <c r="D242" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="n">
+        <v>3</v>
+      </c>
       <c r="F242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
@@ -6872,12 +6908,14 @@
       <c r="D243" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E243" t="inlineStr"/>
+      <c r="E243" t="n">
+        <v>3</v>
+      </c>
       <c r="F243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244">
@@ -6897,12 +6935,14 @@
       <c r="D244" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="n">
+        <v>3</v>
+      </c>
       <c r="F244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245">
@@ -6922,12 +6962,14 @@
       <c r="D245" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="n">
+        <v>3</v>
+      </c>
       <c r="F245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -6948,13 +6990,13 @@
         <v>45645</v>
       </c>
       <c r="E246" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247">
@@ -6974,12 +7016,14 @@
       <c r="D247" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E247" t="inlineStr"/>
+      <c r="E247" t="n">
+        <v>3</v>
+      </c>
       <c r="F247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248">
@@ -6999,12 +7043,14 @@
       <c r="D248" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="n">
+        <v>3</v>
+      </c>
       <c r="F248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
@@ -7024,12 +7070,14 @@
       <c r="D249" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E249" t="inlineStr"/>
+      <c r="E249" t="n">
+        <v>3</v>
+      </c>
       <c r="F249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -7049,12 +7097,14 @@
       <c r="D250" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E250" t="inlineStr"/>
+      <c r="E250" t="n">
+        <v>3</v>
+      </c>
       <c r="F250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
@@ -7074,12 +7124,14 @@
       <c r="D251" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E251" t="inlineStr"/>
+      <c r="E251" t="n">
+        <v>3</v>
+      </c>
       <c r="F251" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252">
@@ -7099,12 +7151,14 @@
       <c r="D252" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E252" t="inlineStr"/>
+      <c r="E252" t="n">
+        <v>3</v>
+      </c>
       <c r="F252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
@@ -7124,12 +7178,14 @@
       <c r="D253" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E253" t="inlineStr"/>
+      <c r="E253" t="n">
+        <v>3</v>
+      </c>
       <c r="F253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254">
@@ -7149,12 +7205,14 @@
       <c r="D254" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E254" t="inlineStr"/>
+      <c r="E254" t="n">
+        <v>3</v>
+      </c>
       <c r="F254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
@@ -7174,12 +7232,14 @@
       <c r="D255" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E255" t="inlineStr"/>
+      <c r="E255" t="n">
+        <v>3</v>
+      </c>
       <c r="F255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
@@ -7199,12 +7259,14 @@
       <c r="D256" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E256" t="inlineStr"/>
+      <c r="E256" t="n">
+        <v>3</v>
+      </c>
       <c r="F256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
@@ -7225,13 +7287,13 @@
         <v>45645</v>
       </c>
       <c r="E257" t="n">
+        <v>3</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
         <v>27</v>
-      </c>
-      <c r="F257" t="n">
-        <v>3</v>
-      </c>
-      <c r="G257" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7252,13 +7314,13 @@
         <v>45645</v>
       </c>
       <c r="E258" t="n">
+        <v>3</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="n">
         <v>27</v>
-      </c>
-      <c r="F258" t="n">
-        <v>3</v>
-      </c>
-      <c r="G258" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -7279,13 +7341,13 @@
         <v>45645</v>
       </c>
       <c r="E259" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260">
@@ -7306,13 +7368,13 @@
         <v>45645</v>
       </c>
       <c r="E260" t="n">
+        <v>3</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
         <v>24</v>
-      </c>
-      <c r="F260" t="n">
-        <v>3</v>
-      </c>
-      <c r="G260" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -7333,13 +7395,13 @@
         <v>45645</v>
       </c>
       <c r="E261" t="n">
+        <v>3</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
         <v>24</v>
-      </c>
-      <c r="F261" t="n">
-        <v>3</v>
-      </c>
-      <c r="G261" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -7360,13 +7422,13 @@
         <v>45645</v>
       </c>
       <c r="E262" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F262" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263">
@@ -7387,13 +7449,13 @@
         <v>45645</v>
       </c>
       <c r="E263" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264">
@@ -7414,13 +7476,13 @@
         <v>45645</v>
       </c>
       <c r="E264" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265">
@@ -7441,13 +7503,13 @@
         <v>45645</v>
       </c>
       <c r="E265" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="266">
@@ -7468,13 +7530,13 @@
         <v>45645</v>
       </c>
       <c r="E266" t="n">
+        <v>3</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1</v>
+      </c>
+      <c r="G266" t="n">
         <v>20</v>
-      </c>
-      <c r="F266" t="n">
-        <v>3</v>
-      </c>
-      <c r="G266" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -7495,13 +7557,13 @@
         <v>45645</v>
       </c>
       <c r="E267" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268">
@@ -7522,13 +7584,13 @@
         <v>45645</v>
       </c>
       <c r="E268" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="269">
@@ -7549,13 +7611,13 @@
         <v>45645</v>
       </c>
       <c r="E269" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270">
@@ -7576,13 +7638,13 @@
         <v>45645</v>
       </c>
       <c r="E270" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F270" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271">
@@ -7603,13 +7665,13 @@
         <v>45645</v>
       </c>
       <c r="E271" t="n">
+        <v>3</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1</v>
+      </c>
+      <c r="G271" t="n">
         <v>20</v>
-      </c>
-      <c r="F271" t="n">
-        <v>3</v>
-      </c>
-      <c r="G271" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -7630,13 +7692,13 @@
         <v>45645</v>
       </c>
       <c r="E272" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273">
@@ -7657,13 +7719,13 @@
         <v>45645</v>
       </c>
       <c r="E273" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
@@ -7684,13 +7746,13 @@
         <v>45645</v>
       </c>
       <c r="E274" t="n">
+        <v>3</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" t="n">
         <v>19</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -7711,13 +7773,13 @@
         <v>45645</v>
       </c>
       <c r="E275" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276">
@@ -7738,13 +7800,13 @@
         <v>45645</v>
       </c>
       <c r="E276" t="n">
+        <v>3</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1</v>
+      </c>
+      <c r="G276" t="n">
         <v>19</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -7765,13 +7827,13 @@
         <v>45645</v>
       </c>
       <c r="E277" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -7792,13 +7854,13 @@
         <v>45645</v>
       </c>
       <c r="E278" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279">
@@ -7819,13 +7881,13 @@
         <v>45645</v>
       </c>
       <c r="E279" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -7846,13 +7908,13 @@
         <v>45645</v>
       </c>
       <c r="E280" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281">
@@ -7873,13 +7935,13 @@
         <v>45645</v>
       </c>
       <c r="E281" t="n">
+        <v>3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="n">
         <v>15</v>
-      </c>
-      <c r="F281" t="n">
-        <v>3</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -7900,13 +7962,13 @@
         <v>45645</v>
       </c>
       <c r="E282" t="n">
+        <v>3</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="n">
         <v>6</v>
-      </c>
-      <c r="F282" t="n">
-        <v>3</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -7927,13 +7989,13 @@
         <v>45645</v>
       </c>
       <c r="E283" t="n">
+        <v>3</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="n">
         <v>12</v>
-      </c>
-      <c r="F283" t="n">
-        <v>3</v>
-      </c>
-      <c r="G283" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -7954,13 +8016,13 @@
         <v>45645</v>
       </c>
       <c r="E284" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285">
@@ -7981,13 +8043,13 @@
         <v>45645</v>
       </c>
       <c r="E285" t="n">
+        <v>3</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="n">
         <v>12</v>
-      </c>
-      <c r="F285" t="n">
-        <v>3</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -8008,13 +8070,13 @@
         <v>45645</v>
       </c>
       <c r="E286" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287">
@@ -8035,13 +8097,13 @@
         <v>45645</v>
       </c>
       <c r="E287" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288">
@@ -8062,13 +8124,13 @@
         <v>45645</v>
       </c>
       <c r="E288" t="n">
+        <v>3</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
         <v>15</v>
-      </c>
-      <c r="F288" t="n">
-        <v>3</v>
-      </c>
-      <c r="G288" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -8089,13 +8151,13 @@
         <v>45645</v>
       </c>
       <c r="E289" t="n">
+        <v>3</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="n">
         <v>14</v>
-      </c>
-      <c r="F289" t="n">
-        <v>3</v>
-      </c>
-      <c r="G289" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -8116,13 +8178,13 @@
         <v>45645</v>
       </c>
       <c r="E290" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291">
@@ -8143,13 +8205,13 @@
         <v>45645</v>
       </c>
       <c r="E291" t="n">
+        <v>3</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" t="n">
         <v>14</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -8170,13 +8232,13 @@
         <v>45645</v>
       </c>
       <c r="E292" t="n">
+        <v>3</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
+      <c r="G292" t="n">
         <v>6</v>
-      </c>
-      <c r="F292" t="n">
-        <v>3</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -8197,13 +8259,13 @@
         <v>45645</v>
       </c>
       <c r="E293" t="n">
+        <v>3</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="n">
         <v>6</v>
-      </c>
-      <c r="F293" t="n">
-        <v>3</v>
-      </c>
-      <c r="G293" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -8224,13 +8286,13 @@
         <v>45645</v>
       </c>
       <c r="E294" t="n">
+        <v>3</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
         <v>8</v>
-      </c>
-      <c r="F294" t="n">
-        <v>3</v>
-      </c>
-      <c r="G294" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -8251,13 +8313,13 @@
         <v>45645</v>
       </c>
       <c r="E295" t="n">
+        <v>3</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G295" t="n">
         <v>5</v>
-      </c>
-      <c r="F295" t="n">
-        <v>3</v>
-      </c>
-      <c r="G295" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -8278,13 +8340,13 @@
         <v>45645</v>
       </c>
       <c r="E296" t="n">
+        <v>3</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" t="n">
         <v>10</v>
-      </c>
-      <c r="F296" t="n">
-        <v>3</v>
-      </c>
-      <c r="G296" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -8304,12 +8366,14 @@
       <c r="D297" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E297" t="inlineStr"/>
+      <c r="E297" t="n">
+        <v>3</v>
+      </c>
       <c r="F297" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298">
@@ -8330,13 +8394,13 @@
         <v>45645</v>
       </c>
       <c r="E298" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299">
@@ -8357,13 +8421,13 @@
         <v>45645</v>
       </c>
       <c r="E299" t="n">
+        <v>3</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="n">
         <v>10</v>
-      </c>
-      <c r="F299" t="n">
-        <v>3</v>
-      </c>
-      <c r="G299" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -8384,13 +8448,13 @@
         <v>45645</v>
       </c>
       <c r="E300" t="n">
+        <v>3</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1</v>
+      </c>
+      <c r="G300" t="n">
         <v>9</v>
-      </c>
-      <c r="F300" t="n">
-        <v>3</v>
-      </c>
-      <c r="G300" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -8411,13 +8475,13 @@
         <v>45645</v>
       </c>
       <c r="E301" t="n">
+        <v>3</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1</v>
+      </c>
+      <c r="G301" t="n">
         <v>9</v>
-      </c>
-      <c r="F301" t="n">
-        <v>3</v>
-      </c>
-      <c r="G301" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -8438,13 +8502,13 @@
         <v>45645</v>
       </c>
       <c r="E302" t="n">
+        <v>3</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1</v>
+      </c>
+      <c r="G302" t="n">
         <v>8</v>
-      </c>
-      <c r="F302" t="n">
-        <v>3</v>
-      </c>
-      <c r="G302" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -8465,13 +8529,13 @@
         <v>45645</v>
       </c>
       <c r="E303" t="n">
+        <v>3</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1</v>
+      </c>
+      <c r="G303" t="n">
         <v>8</v>
-      </c>
-      <c r="F303" t="n">
-        <v>3</v>
-      </c>
-      <c r="G303" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -8492,13 +8556,13 @@
         <v>45645</v>
       </c>
       <c r="E304" t="n">
+        <v>3</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="n">
         <v>7</v>
-      </c>
-      <c r="F304" t="n">
-        <v>3</v>
-      </c>
-      <c r="G304" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -8519,13 +8583,13 @@
         <v>45645</v>
       </c>
       <c r="E305" t="n">
+        <v>3</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" t="n">
         <v>2</v>
-      </c>
-      <c r="F305" t="n">
-        <v>3</v>
-      </c>
-      <c r="G305" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -8546,13 +8610,13 @@
         <v>45645</v>
       </c>
       <c r="E306" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -8573,13 +8637,13 @@
         <v>45645</v>
       </c>
       <c r="E307" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -8600,13 +8664,13 @@
         <v>45645</v>
       </c>
       <c r="E308" t="n">
+        <v>3</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1</v>
+      </c>
+      <c r="G308" t="n">
         <v>7</v>
-      </c>
-      <c r="F308" t="n">
-        <v>3</v>
-      </c>
-      <c r="G308" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -8627,13 +8691,13 @@
         <v>45645</v>
       </c>
       <c r="E309" t="n">
+        <v>3</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1</v>
+      </c>
+      <c r="G309" t="n">
         <v>7</v>
-      </c>
-      <c r="F309" t="n">
-        <v>3</v>
-      </c>
-      <c r="G309" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -8654,10 +8718,10 @@
         <v>45645</v>
       </c>
       <c r="E310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F310" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -8681,10 +8745,10 @@
         <v>45645</v>
       </c>
       <c r="E311" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F311" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -8711,10 +8775,10 @@
         <v>3</v>
       </c>
       <c r="F312" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -8738,10 +8802,10 @@
         <v>3</v>
       </c>
       <c r="F313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314">
@@ -8762,13 +8826,13 @@
         <v>45645</v>
       </c>
       <c r="E314" t="n">
+        <v>3</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1</v>
+      </c>
+      <c r="G314" t="n">
         <v>2</v>
-      </c>
-      <c r="F314" t="n">
-        <v>3</v>
-      </c>
-      <c r="G314" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -8789,13 +8853,13 @@
         <v>45645</v>
       </c>
       <c r="E315" t="n">
+        <v>3</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G315" t="n">
         <v>7</v>
-      </c>
-      <c r="F315" t="n">
-        <v>3</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -8816,13 +8880,13 @@
         <v>45645</v>
       </c>
       <c r="E316" t="n">
+        <v>3</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1</v>
+      </c>
+      <c r="G316" t="n">
         <v>7</v>
-      </c>
-      <c r="F316" t="n">
-        <v>3</v>
-      </c>
-      <c r="G316" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -8842,12 +8906,14 @@
       <c r="D317" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E317" t="inlineStr"/>
+      <c r="E317" t="n">
+        <v>3</v>
+      </c>
       <c r="F317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="318">
@@ -8867,12 +8933,14 @@
       <c r="D318" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E318" t="inlineStr"/>
+      <c r="E318" t="n">
+        <v>3</v>
+      </c>
       <c r="F318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319">
@@ -8892,12 +8960,14 @@
       <c r="D319" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E319" t="inlineStr"/>
+      <c r="E319" t="n">
+        <v>3</v>
+      </c>
       <c r="F319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320">
@@ -8917,12 +8987,14 @@
       <c r="D320" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E320" t="inlineStr"/>
+      <c r="E320" t="n">
+        <v>3</v>
+      </c>
       <c r="F320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321">
@@ -8942,12 +9014,14 @@
       <c r="D321" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E321" t="inlineStr"/>
+      <c r="E321" t="n">
+        <v>3</v>
+      </c>
       <c r="F321" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322">
@@ -8967,12 +9041,14 @@
       <c r="D322" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E322" t="inlineStr"/>
+      <c r="E322" t="n">
+        <v>3</v>
+      </c>
       <c r="F322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -8993,13 +9069,13 @@
         <v>45645</v>
       </c>
       <c r="E323" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F323" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324">
@@ -9019,9 +9095,11 @@
       <c r="D324" s="2" t="n">
         <v>45645</v>
       </c>
-      <c r="E324" t="inlineStr"/>
+      <c r="E324" t="n">
+        <v>3</v>
+      </c>
       <c r="F324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -9045,13 +9123,13 @@
         <v>45645</v>
       </c>
       <c r="E325" t="n">
+        <v>3</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1</v>
+      </c>
+      <c r="G325" t="n">
         <v>5</v>
-      </c>
-      <c r="F325" t="n">
-        <v>3</v>
-      </c>
-      <c r="G325" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -9072,13 +9150,13 @@
         <v>45646</v>
       </c>
       <c r="E326" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -9099,13 +9177,13 @@
         <v>45646</v>
       </c>
       <c r="E327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="n">
         <v>7</v>
-      </c>
-      <c r="F327" t="n">
-        <v>1</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -9126,13 +9204,13 @@
         <v>45646</v>
       </c>
       <c r="E328" t="n">
+        <v>3</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="n">
         <v>5</v>
-      </c>
-      <c r="F328" t="n">
-        <v>3</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -9153,13 +9231,13 @@
         <v>45646</v>
       </c>
       <c r="E329" t="n">
+        <v>1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="n">
         <v>7</v>
-      </c>
-      <c r="F329" t="n">
-        <v>1</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -9180,13 +9258,13 @@
         <v>45646</v>
       </c>
       <c r="E330" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331">
@@ -9207,13 +9285,13 @@
         <v>45646</v>
       </c>
       <c r="E331" t="n">
+        <v>3</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1</v>
+      </c>
+      <c r="G331" t="n">
         <v>7</v>
-      </c>
-      <c r="F331" t="n">
-        <v>3</v>
-      </c>
-      <c r="G331" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -9234,13 +9312,13 @@
         <v>45646</v>
       </c>
       <c r="E332" t="n">
+        <v>3</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G332" t="n">
         <v>7</v>
-      </c>
-      <c r="F332" t="n">
-        <v>3</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -9261,13 +9339,13 @@
         <v>45649</v>
       </c>
       <c r="E333" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334">
@@ -9288,13 +9366,13 @@
         <v>45649</v>
       </c>
       <c r="E334" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335">
@@ -9315,13 +9393,13 @@
         <v>45649</v>
       </c>
       <c r="E335" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336">
@@ -9342,13 +9420,13 @@
         <v>45649</v>
       </c>
       <c r="E336" t="n">
+        <v>3</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
+      <c r="G336" t="n">
         <v>7</v>
-      </c>
-      <c r="F336" t="n">
-        <v>3</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -9369,13 +9447,13 @@
         <v>45649</v>
       </c>
       <c r="E337" t="n">
+        <v>3</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G337" t="n">
         <v>7</v>
-      </c>
-      <c r="F337" t="n">
-        <v>3</v>
-      </c>
-      <c r="G337" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -9396,13 +9474,13 @@
         <v>45653</v>
       </c>
       <c r="E338" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339">
@@ -9423,13 +9501,13 @@
         <v>45653</v>
       </c>
       <c r="E339" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340">
@@ -9450,13 +9528,13 @@
         <v>45653</v>
       </c>
       <c r="E340" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341">
@@ -9477,13 +9555,13 @@
         <v>45653</v>
       </c>
       <c r="E341" t="n">
+        <v>3</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1</v>
+      </c>
+      <c r="G341" t="n">
         <v>7</v>
-      </c>
-      <c r="F341" t="n">
-        <v>3</v>
-      </c>
-      <c r="G341" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -9503,12 +9581,14 @@
       <c r="D342" s="2" t="n">
         <v>45653</v>
       </c>
-      <c r="E342" t="inlineStr"/>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
       <c r="F342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343">
@@ -9529,13 +9609,13 @@
         <v>45653</v>
       </c>
       <c r="E343" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -9556,13 +9636,13 @@
         <v>45653</v>
       </c>
       <c r="E344" t="n">
+        <v>1</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G344" t="n">
         <v>24</v>
-      </c>
-      <c r="F344" t="n">
-        <v>1</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Avaliacao</t>
+          <t>Avaliação</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -599,7 +599,9 @@
       <c r="D6" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -732,7 +734,9 @@
       <c r="D11" s="2" t="n">
         <v>45476</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -757,7 +761,9 @@
       <c r="D12" s="2" t="n">
         <v>45477</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>99</v>
+      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -836,7 +842,9 @@
       <c r="D15" s="2" t="n">
         <v>45478</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -996,7 +1004,9 @@
       <c r="D21" s="2" t="n">
         <v>45487</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -1021,7 +1031,9 @@
       <c r="D22" s="2" t="n">
         <v>45487</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>99</v>
+      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -1289,7 +1301,9 @@
       <c r="D32" s="2" t="n">
         <v>45491</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>99</v>
+      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -1368,7 +1382,9 @@
       <c r="D35" s="2" t="n">
         <v>45492</v>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -1447,7 +1463,9 @@
       <c r="D38" s="2" t="n">
         <v>45499</v>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>99</v>
+      </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
@@ -1634,7 +1652,9 @@
       <c r="D45" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>99</v>
+      </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
@@ -1659,7 +1679,9 @@
       <c r="D46" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>99</v>
+      </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
@@ -1711,7 +1733,9 @@
       <c r="D48" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
@@ -2060,7 +2084,9 @@
       <c r="D61" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>99</v>
+      </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
@@ -2166,7 +2192,9 @@
       <c r="D65" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>99</v>
+      </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
@@ -2191,7 +2219,9 @@
       <c r="D66" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>99</v>
+      </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
@@ -2297,7 +2327,9 @@
       <c r="D70" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>5</v>
+      </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
@@ -2322,7 +2354,9 @@
       <c r="D71" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
@@ -2347,7 +2381,9 @@
       <c r="D72" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
@@ -2372,7 +2408,9 @@
       <c r="D73" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
@@ -2397,7 +2435,9 @@
       <c r="D74" s="2" t="n">
         <v>45525</v>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>99</v>
+      </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
@@ -2617,7 +2657,9 @@
       <c r="F82" t="n">
         <v>1</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2771,7 +2813,9 @@
       <c r="D88" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>99</v>
+      </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
@@ -2796,7 +2840,9 @@
       <c r="D89" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
@@ -2821,7 +2867,9 @@
       <c r="D90" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
@@ -2846,7 +2894,9 @@
       <c r="D91" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>99</v>
+      </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
@@ -3438,7 +3488,9 @@
       <c r="D113" s="2" t="n">
         <v>45554</v>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>99</v>
+      </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
@@ -3490,7 +3542,9 @@
       <c r="D115" s="2" t="n">
         <v>45554</v>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>99</v>
+      </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
@@ -3515,7 +3569,9 @@
       <c r="D116" s="2" t="n">
         <v>45554</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>5</v>
+      </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
@@ -3891,7 +3947,9 @@
       <c r="D130" s="2" t="n">
         <v>45574</v>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>99</v>
+      </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
@@ -4051,7 +4109,9 @@
       <c r="D136" s="2" t="n">
         <v>45574</v>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>99</v>
+      </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
@@ -4076,7 +4136,9 @@
       <c r="D137" s="2" t="n">
         <v>45574</v>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>99</v>
+      </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
@@ -4533,7 +4595,9 @@
       <c r="D154" s="2" t="n">
         <v>45615</v>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>6</v>
+      </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
@@ -4909,7 +4973,9 @@
       <c r="D168" s="2" t="n">
         <v>45615</v>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
@@ -5150,7 +5216,9 @@
       <c r="D177" s="2" t="n">
         <v>45623</v>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>99</v>
+      </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
@@ -5229,7 +5297,9 @@
       <c r="D180" s="2" t="n">
         <v>45623</v>
       </c>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>99</v>
+      </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
@@ -5308,7 +5378,9 @@
       <c r="D183" s="2" t="n">
         <v>45625</v>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>99</v>
+      </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
@@ -5333,7 +5405,9 @@
       <c r="D184" s="2" t="n">
         <v>45625</v>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>6</v>
+      </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
@@ -5871,7 +5945,9 @@
       <c r="D204" s="2" t="n">
         <v>45636</v>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>6</v>
+      </c>
       <c r="F204" t="n">
         <v>0</v>
       </c>
@@ -6004,7 +6080,9 @@
       <c r="D209" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>2</v>
+      </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
@@ -6251,7 +6329,9 @@
       <c r="F218" t="n">
         <v>0</v>
       </c>
-      <c r="G218" t="inlineStr"/>
+      <c r="G218" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6357,7 +6437,9 @@
       <c r="F222" t="n">
         <v>0</v>
       </c>
-      <c r="G222" t="inlineStr"/>
+      <c r="G222" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6457,7 +6539,9 @@
       <c r="D226" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="n">
+        <v>2</v>
+      </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
@@ -6482,7 +6566,9 @@
       <c r="D227" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>2</v>
+      </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
@@ -6507,7 +6593,9 @@
       <c r="D228" s="2" t="n">
         <v>45643</v>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="n">
+        <v>2</v>
+      </c>
       <c r="F228" t="n">
         <v>0</v>
       </c>
@@ -6586,7 +6674,9 @@
       <c r="D231" s="2" t="n">
         <v>45644</v>
       </c>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="n">
+        <v>99</v>
+      </c>
       <c r="F231" t="n">
         <v>0</v>
       </c>
